--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Avance Technologies Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Avance Technologies Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -755,13 +755,13 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>-0.2857142857142858</v>
+        <v>-0.29</v>
       </c>
       <c r="C3">
-        <v>-0.2857142857142858</v>
+        <v>-0.29</v>
       </c>
       <c r="D3">
-        <v>-0.2792857142857143</v>
+        <v>-0.28</v>
       </c>
       <c r="E3">
         <v>2.57</v>
@@ -776,16 +776,16 @@
         <v>2.75</v>
       </c>
       <c r="I3">
-        <v>0.0075</v>
+        <v>0.01</v>
       </c>
       <c r="J3">
-        <v>0.0075</v>
+        <v>0.01</v>
       </c>
       <c r="K3">
-        <v>-0.2764285714285714</v>
+        <v>-0.28</v>
       </c>
       <c r="L3">
-        <v>-0.2792857142857143</v>
+        <v>-0.28</v>
       </c>
       <c r="M3">
         <v>0.1</v>
@@ -809,7 +809,7 @@
         <v>0.01</v>
       </c>
       <c r="T3">
-        <v>0.1876923076923077</v>
+        <v>0.19</v>
       </c>
       <c r="U3">
         <v>51.79</v>
@@ -857,7 +857,7 @@
         <v>2.26</v>
       </c>
       <c r="AJ3">
-        <v>-1.205</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1766,10 +1766,10 @@
         <v>0.02</v>
       </c>
       <c r="I12">
-        <v>0.0075</v>
+        <v>0.01</v>
       </c>
       <c r="J12">
-        <v>0.0075</v>
+        <v>0.01</v>
       </c>
       <c r="K12">
         <v>-2.55</v>
@@ -1802,7 +1802,7 @@
         <v>0.49</v>
       </c>
       <c r="U12">
-        <v>14.385</v>
+        <v>14.39</v>
       </c>
       <c r="V12">
         <v>0.95</v>
@@ -1811,7 +1811,7 @@
         <v>0.84</v>
       </c>
       <c r="X12">
-        <v>3.386153846153846</v>
+        <v>3.39</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1820,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>15.38461538461539</v>
+        <v>15.38</v>
       </c>
       <c r="AB12">
-        <v>15.38461538461539</v>
+        <v>15.38</v>
       </c>
       <c r="AC12">
         <v>149.67</v>
@@ -1838,7 +1838,7 @@
         <v>12.57</v>
       </c>
       <c r="AG12">
-        <v>15.38461538461539</v>
+        <v>15.38</v>
       </c>
       <c r="AH12">
         <v>0.01</v>
@@ -1876,10 +1876,10 @@
         <v>1.32</v>
       </c>
       <c r="I13">
-        <v>0.0075</v>
+        <v>0.01</v>
       </c>
       <c r="J13">
-        <v>0.0075</v>
+        <v>0.01</v>
       </c>
       <c r="K13">
         <v>-1.39</v>
@@ -1909,7 +1909,7 @@
         <v>-9.17</v>
       </c>
       <c r="T13">
-        <v>0.1876923076923077</v>
+        <v>0.19</v>
       </c>
       <c r="U13">
         <v>0.01</v>
@@ -1921,7 +1921,7 @@
         <v>0.04</v>
       </c>
       <c r="X13">
-        <v>3.386153846153846</v>
+        <v>3.39</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>15.38461538461539</v>
+        <v>15.38</v>
       </c>
       <c r="AB13">
-        <v>15.38461538461539</v>
+        <v>15.38</v>
       </c>
       <c r="AC13">
         <v>9.460000000000001</v>
@@ -1948,7 +1948,7 @@
         <v>226.37</v>
       </c>
       <c r="AG13">
-        <v>15.38461538461539</v>
+        <v>15.38</v>
       </c>
       <c r="AH13">
         <v>0.04</v>
